--- a/exp.xlsx
+++ b/exp.xlsx
@@ -13,8 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="BiLSTM" sheetId="1" r:id="rId1"/>
-    <sheet name="PowCRN" sheetId="2" r:id="rId2"/>
-    <sheet name="MelCRN" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,28 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>clean ACC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Noise1 ACC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Noise2 ACC</t>
-  </si>
-  <si>
-    <t>Noise3 ACC</t>
-  </si>
-  <si>
-    <t>Noise4 ACC</t>
-  </si>
-  <si>
-    <t>Noise5 ACC</t>
-  </si>
-  <si>
     <t>clean trained</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,6 +55,34 @@
   </si>
   <si>
     <t>Noise avg ACC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-10dB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准确率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召回率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5dB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0dB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准确率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -119,9 +129,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -474,233 +493,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.75" customWidth="1"/>
-    <col min="2" max="7" width="15.625" style="1" customWidth="1"/>
-    <col min="8" max="11" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="10" width="15.625" style="1" customWidth="1"/>
+    <col min="11" max="14" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="e">
+        <f>AVERAGE(E2:I2)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="e">
-        <f>AVERAGE(C2:G2)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="25.75" customWidth="1"/>
-    <col min="2" max="7" width="15.625" style="1" customWidth="1"/>
-    <col min="8" max="11" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="e">
-        <f>AVERAGE(C2:G2)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="25.75" customWidth="1"/>
-    <col min="2" max="7" width="15.625" style="1" customWidth="1"/>
-    <col min="8" max="11" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="e">
-        <f>AVERAGE(C2:G2)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
